--- a/examples/test_database/gpr.xlsx
+++ b/examples/test_database/gpr.xlsx
@@ -1,130 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ExcelWriter" r:id="rId3" sheetId="1"/>
+    <sheet name="ExcelWriter" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Genes</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Trans-cinnamate degradation, trans-cinnamate =&gt; acetyl-CoA</t>
-  </si>
-  <si>
-    <t>M00545</t>
-  </si>
-  <si>
-    <t>R02601</t>
-  </si>
-  <si>
-    <t>4.2.1.80</t>
-  </si>
-  <si>
-    <t>K02554</t>
-  </si>
-  <si>
-    <t>Catechol meta-cleavage, catechol =&gt; acetyl-CoA / 4-methylcatechol =&gt; propanoyl-CoA</t>
-  </si>
-  <si>
-    <t>M00569</t>
+    <t xml:space="preserve">Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trans-cinnamate degradation, trans-cinnamate =&gt; acetyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M00545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catechol meta-cleavage, catechol =&gt; acetyl-CoA / 4-methylcatechol =&gt; propanoyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M00569</t>
   </si>
   <si>
     <t xml:space="preserve"> K02554</t>
   </si>
   <si>
-    <t>K18364 or  K02554</t>
-  </si>
-  <si>
-    <t>R00750</t>
-  </si>
-  <si>
-    <t>4.1.3.39</t>
-  </si>
-  <si>
-    <t>K01666</t>
+    <t xml:space="preserve">K18364 or  K02554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.3.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K01666</t>
   </si>
   <si>
     <t xml:space="preserve"> K01666</t>
   </si>
   <si>
-    <t>K18365 or  K01666</t>
-  </si>
-  <si>
-    <t>Benzoate degradation, benzoate =&gt; catechol / methylbenzoate =&gt; methylcatechol</t>
-  </si>
-  <si>
-    <t>M00551</t>
-  </si>
-  <si>
-    <t>R00813</t>
-  </si>
-  <si>
-    <t>1.3.1.25</t>
-  </si>
-  <si>
-    <t>K05783</t>
-  </si>
-  <si>
-    <t>R02604</t>
-  </si>
-  <si>
-    <t>3.7.1.9</t>
+    <t xml:space="preserve">K18365 and  K01666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzoate degradation, benzoate =&gt; catechol / methylbenzoate =&gt; methylcatechol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M00551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K05783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7.1.9</t>
   </si>
   <si>
     <t xml:space="preserve"> K10216</t>
   </si>
   <si>
-    <t>K01617 or  K10216</t>
-  </si>
-  <si>
-    <t>R00816</t>
-  </si>
-  <si>
-    <t>1.13.11.2</t>
+    <t xml:space="preserve">K01617 or  K10216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13.11.2</t>
   </si>
   <si>
     <t xml:space="preserve"> K07104</t>
   </si>
   <si>
-    <t>K00446 or  K07104</t>
+    <t xml:space="preserve">K00446 or  K07104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,11 +155,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -144,184 +167,231 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.76"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>